--- a/inst/xlsx/macrounchainedFocusGW-documentation.xlsx
+++ b/inst/xlsx/macrounchainedFocusGW-documentation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
   <si>
     <t xml:space="preserve">category</t>
   </si>
@@ -70,6 +70,21 @@
     <t xml:space="preserve">Columns in ‘s’</t>
   </si>
   <si>
+    <t xml:space="preserve">soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name of the FOCUS-scenario (soil/ site) to be used for the parameter set. Can only be used when the argument "focus_mode" is set "gw". When the column “soil” is provided, the column "crop" should be provided too (see below), but the argument "parfile" should not be used, and neither the optional column "parfile", as the template par-file is determined internally. Partial matching and transliteration are used, and casing is ignored, and so that input like "Châteaudun", "chateaudun" or "chat" will all refer to the same  Châteaudun FOCUS-scenario. An error will be raised in case of multiple matches or no match.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name of the FOCUS-crop to be used for the parameter set. Can only be used when the argument "focus_mode" is set to "gw". When the column “crop” is provided, the column "soil" should be provided too (see above). Partial matching and transliteration are used, and casing is ignored. Important qualifiers such as "winter" and "spring" (for cereals and oil seed rape), or "bulb", "fruiting", "leafy" and "root" (for vegetables), should be separated from the crop name by a comma (as in MACRO In FOCUS user interface), but the can come either before or after the crop name. Spaces are otherwise ignored. Input like "Cereals, Winter", "cereals, winter", "cer, win" or even "win, cer" will all refer to the same Winter cereals FOCUS-crop. "Sugar beets" is equivalent to "sugarbeets". An error will be raised in case of multiple matches or no match.</t>
+  </si>
+  <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
@@ -77,9 +92,6 @@
   </si>
   <si>
     <t xml:space="preserve">Unique identifier of the substance. Integer between 1 and 998. Will also be used as a Run ID.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
   </si>
   <si>
     <t xml:space="preserve">Name of the substance. Names don’t need to be unique, but it may be a good idea if they are.</t>
@@ -409,17 +421,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="55.05"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
@@ -498,7 +510,7 @@
       <c r="D6" s="9"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="115" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -513,20 +525,20 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="149.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7"/>
       <c r="B9" s="7" t="s">
         <v>21</v>
@@ -534,203 +546,229 @@
       <c r="C9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7"/>
       <c r="B12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7"/>
       <c r="B13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7"/>
       <c r="B14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7"/>
       <c r="B15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="D15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7"/>
       <c r="B16" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7"/>
       <c r="B17" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7"/>
       <c r="B18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7"/>
       <c r="B19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="20" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7"/>
       <c r="B20" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>52</v>
-      </c>
+      <c r="D20" s="7"/>
       <c r="E20" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7"/>
       <c r="B21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="7" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="C22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="7" t="s">
+      <c r="E22" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="7" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="C23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>59</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/inst/xlsx/macrounchainedFocusGW-documentation.xlsx
+++ b/inst/xlsx/macrounchainedFocusGW-documentation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
   <si>
     <t xml:space="preserve">category</t>
   </si>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">[this file]</t>
   </si>
   <si>
-    <t xml:space="preserve">Excel file</t>
+    <t xml:space="preserve">file</t>
   </si>
   <si>
     <t xml:space="preserve">This is a template Excel file for preparing sets substance properties for the R package ‘macrounchained’</t>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">info</t>
   </si>
   <si>
-    <t xml:space="preserve">Excel sheet</t>
+    <t xml:space="preserve">sheet</t>
   </si>
   <si>
     <t xml:space="preserve">This sheet. General information, not needed by ‘macrounchained’</t>
@@ -67,7 +67,8 @@
     <t xml:space="preserve">Sheet containing a table with different sets of substance properties. Each row is a set of properties. Each column is a property. It is possible to prepare several sets of properties for the same substance, as long as their “id” differ.</t>
   </si>
   <si>
-    <t xml:space="preserve">Columns in ‘s’</t>
+    <t xml:space="preserve">Columns
+In ‘s’</t>
   </si>
   <si>
     <t xml:space="preserve">soil</t>
@@ -175,7 +176,7 @@
     <t xml:space="preserve">parent_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Only for metabolites. Leave empty for substances that are not the degradation product of another substance. `id` of the parent substance, i.e. the substance that degrades into the metabolite described in this row. For secondary metabolites (and further), the "parent" will also be a metabolite.</t>
+    <t xml:space="preserve">Only for metabolites. Leave empty for substances that are not the degradation product of another substance. `id` of the parent substance, i.e. the substance that degrades into the metabolite described in this row. For secondary metabolites (and further), the "parent" will also be a metabolite. If the substance is the degradation product of several substances, give the id-values separated with a vertical bar. Do not quote the values. Give the values in the same order as for “transf_f”. For example, if the substance is the degradation product of substances id 1 and 2, write 1|2</t>
   </si>
   <si>
     <t xml:space="preserve">g_per_mol</t>
@@ -187,13 +188,19 @@
     <t xml:space="preserve">Molar mass [g/mol] of the substance. Only needed when the substance is degrading into a degradation product or is the degradation product of another substance. Leave empty otherwise.</t>
   </si>
   <si>
+    <t xml:space="preserve">transf_f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformation fraction. Leave empty for substances that are not the degradation product of another substance. The unit is “mol metabolite formed per mol of parent-substance degraded”. It should not be confused with the “conversion factor” used in MACRO In FOCUS (mass of metabolite formed per mass unit of parent degraded). The two are related as follow: conversion_factor = ( M_parent / M_metabolite ) * transf_f, where M_parent is the molar mass of the parent substance and M_metabolite is the molar mass of the metabolite. If the substance is the degradation product of several substances, give their respective values for transf_f separated with a vertical bar. Do not quote the values. Give the values in the same order as for “parent_id”. For example, write 0.8|0.6</t>
+  </si>
+  <si>
     <t xml:space="preserve">g_as_per_ha</t>
   </si>
   <si>
     <t xml:space="preserve">[g/ha]</t>
   </si>
   <si>
-    <t xml:space="preserve">Application rate (in g substance per hectare) of the substance. Set to 0 g/ha if the substance is a degradation product. In case of several applications per year, give the values separated with a vertical bar (see https://en.wikipedia.org/wiki/Vertical_bar). Do not quote the values. For example, for two applications of 1000g/ha and 90g/ha, respectively, type 1000|900</t>
+    <t xml:space="preserve">Application rate (in g substance per hectare) of the substance. Set to 0 g/ha if the substance is a degradation product. In case of several applications per year, give the values separated with a vertical bar. Do not quote the values. For example, for two applications of 1000g/ha and 90g/ha, respectively, type 1000|900</t>
   </si>
   <si>
     <t xml:space="preserve">app_j_day</t>
@@ -202,7 +209,7 @@
     <t xml:space="preserve">[Julian day]</t>
   </si>
   <si>
-    <t xml:space="preserve">Application date (in Julian day) of the substance. Use the application date of the applied substance (the original parent) if the substance is a degradation product. In case of several applications per year, give the values separated with a vertical bar (see https://en.wikipedia.org/wiki/Vertical_bar). Do not quote the values. For example, for two applications on Julian days 298 and 305, respectively, type 298|305</t>
+    <t xml:space="preserve">Application date (in Julian day) of the substance. Use the application date of the applied substance (the original parent) if the substance is a degradation product. In case of several applications per year, give the values separated with a vertical bar. Do not quote the values. For example, for two applications on Julian days 298 and 305, respectively, type 298|305</t>
   </si>
   <si>
     <t xml:space="preserve">years_interval</t>
@@ -299,7 +306,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -341,6 +348,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -421,7 +432,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -429,10 +440,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="55.05"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
@@ -454,7 +465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -511,7 +522,7 @@
       <c r="E6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="115" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -538,7 +549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7"/>
       <c r="B9" s="7" t="s">
         <v>21</v>
@@ -551,7 +562,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
         <v>1</v>
@@ -669,7 +680,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7"/>
       <c r="B18" s="7" t="s">
         <v>45</v>
@@ -699,7 +710,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7"/>
       <c r="B20" s="7" t="s">
         <v>50</v>
@@ -727,7 +738,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7"/>
       <c r="B22" s="7" t="s">
         <v>55</v>
@@ -736,39 +747,54 @@
         <v>26</v>
       </c>
       <c r="D22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7"/>
       <c r="B23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="E23" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="8" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="8" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="58" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="7" t="s">
         <v>63</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
